--- a/data/hotels_by_city/Dallas/Dallas_shard_549.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_549.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,590 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r486093250-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109453</t>
+  </si>
+  <si>
+    <t>486093250</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Ok over night</t>
+  </si>
+  <si>
+    <t>We had a stop over in Dallas so this was ok for one night. Close to airport. Rooms were basic but ok. It was in a quiet area but looked like there was a gentlemans club on the next block. Had an in door pool but we didn't use it. Pretty easy check in/out.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r479987180-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>479987180</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Bedbugs</t>
+  </si>
+  <si>
+    <t>I checked into the motel 6 dallas northwest on 4/28/2017, that evening I found a bed bug  on the sheets and took pictures and video to show the front desk.  The manager denied the hotel having a bed bug issue, and said I must have brought the bed bugs with me ... Travelers beware.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Dallas Northwest, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>I checked into the motel 6 dallas northwest on 4/28/2017, that evening I found a bed bug  on the sheets and took pictures and video to show the front desk.  The manager denied the hotel having a bed bug issue, and said I must have brought the bed bugs with me ... Travelers beware.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r458830052-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>458830052</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>It's ok</t>
+  </si>
+  <si>
+    <t>Had a real long layover before an international flight wanted somewhere cheap to lay down and take a shower. This place was it. For under 60 bucks we got a queen size bed and a place to get clean and change clothes. They also have a shuttle to the airport so it was actually pretty convenientMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Had a real long layover before an international flight wanted somewhere cheap to lay down and take a shower. This place was it. For under 60 bucks we got a queen size bed and a place to get clean and change clothes. They also have a shuttle to the airport so it was actually pretty convenientMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r378307048-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>378307048</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Okay hotel for one night</t>
+  </si>
+  <si>
+    <t>We had to leave from the airport super early, so one night was all we needed for rest and some free breakfast. The rooms were clean and the staff was friendly. The breakfast was hot and we were not too far from the airport so that was awesome as well. Thank you for a great stay!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r369368611-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>369368611</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Average Hotel</t>
+  </si>
+  <si>
+    <t>Stayed the weekend of 4/29 to 5/1. Check in went smoothly got the room desired. It was clean and non smoking like I asked. The indoor pool was plus. Very quiet and respectful neighbors as well. The staff was very helpful and courteous. The only negative thing i had to say was that the sofa bed that we expected to use was broken and needed to be replaced.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r355634332-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>355634332</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>We had quite a long wait for the motel shuttle van. There was no obvious 'bus stop' for Motel 6 at the airport and no free phone, cost us an international call to get through to the reception at the hotel. We booked the return van for the morning but it was heavily overbooked by airline staff who felt they had preference over us as they used the service on a regular basis!   Basic hotel accommodation but it was clean. You get what you pay for anywhere in the world. Would I stay here again? Probably not, there are plenty of other motels in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r340284033-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>340284033</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Fair Value, Long wait for Airport Shuttle</t>
+  </si>
+  <si>
+    <t>The rooms were clean and spacious. The linens were fresh and everything in the room worked. Good value for what the rates are.Only issue was the Airport Shuttle from DFW was a LONG wait and ended up hitching a ride with another hotel shuttle after waiting for an hour and just giving the driver $10.They should have some sort of schedule or estimated pick up time instead of saying "The Shuttle left already, just wait outside." Other than that, the hotel itself is fine.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r291624798-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>291624798</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Nice For The Price</t>
+  </si>
+  <si>
+    <t>The hotel is nice. The staff are very nice. There have been times when the people in other rooms around us are very noisy and sometimes had a funky smell in the hall, other then that I like the hotel.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r279814461-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>279814461</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Went to this area for Gas Monkey Bar and Grill, and Bikinis bar, this location for Motel 6 was perfect. Cheap, clean and HUGHE room. Staff was nice. Recommend this motel, well spent money! Close to a massive liqour store as well. Nothing more to ask for</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r270898379-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>270898379</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Pretty good place</t>
+  </si>
+  <si>
+    <t>It's not your typical Motel 6, my room had a living room &amp; a bedroom area like a regular 1 room apartment. It mostly would of been a other motel chain before Motel 6 took over. Had a small refrigerator &amp; microwave. Would book a room here again if I come back to town.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r260238630-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>260238630</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>The dump of dumps!</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I may have ever stayed at.  The hotel had a odor that wouldn't leave.  My room though spacious was torn up and worn.  The furniture was torn and frayed, the tub was cracked.  There were little amenities to compliment.  The value was weak.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r259199974-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>259199974</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>Pretty on the outside..</t>
+  </si>
+  <si>
+    <t>Yuck! Of course it's not up to part with money hungry Indians running it! Oh it's beautiful on the outside but as soon as u walk in your hit with their musty smell! The rooms stink and are dirty and cheap. Your not far from prostitution alley and that's really all we saw checking in. Oh and when we woke up and turned the light on I discovered a dead bed bug! Horrible do not stay!!!!!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r212406888-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>212406888</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>No bueno!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I stayed in the room 211 and the cleanliness was horrible, 1st I found a condom and oil in 1 of the drawer 2nd hair on the bathroom floor 3rd Roches in shower 4th presentation was not there 5th the freezer was all frozen felt bad so I unplugged it, make sure to check the rooms before turning them vacant ready </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r195751300-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>195751300</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>WORST MOTEL 6 EVER</t>
+  </si>
+  <si>
+    <t>First off they didn't honor my employee rate. Which is 30% off. So didn't get that. I show up to the hotel and the manager cancelled my reservation even though I reserved it with a card which means I get the room guaranteed all night. Then I gave a CP# and they wouldn't even honor that. Hands down worst motel 6 experience ever. I will never stay here again and I'll be sure to call guest relations in the morning as soon as they open up. MoreShow less</t>
+  </si>
+  <si>
+    <t>andy p, Guest Relations Manager at Motel 6 Dallas Northwest, responded to this reviewResponded March 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2014</t>
+  </si>
+  <si>
+    <t>First off they didn't honor my employee rate. Which is 30% off. So didn't get that. I show up to the hotel and the manager cancelled my reservation even though I reserved it with a card which means I get the room guaranteed all night. Then I gave a CP# and they wouldn't even honor that. Hands down worst motel 6 experience ever. I will never stay here again and I'll be sure to call guest relations in the morning as soon as they open up. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r194845068-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>194845068</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst by far </t>
+  </si>
+  <si>
+    <t>When we got to the hotel it stunk like a dump, was told that breakfast was served and there is only coffee hot water doesn't work a/c doesn't work towels are dirty WiFi sucks tv is all Spanish speaking crap pool wasn't open on the plus rooms are big lol but unless you want a roach infested stink hole I'd stay elsewhereMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>andy p, Guest Relations Manager at Motel 6 Dallas Northwest, responded to this reviewResponded February 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2014</t>
+  </si>
+  <si>
+    <t>When we got to the hotel it stunk like a dump, was told that breakfast was served and there is only coffee hot water doesn't work a/c doesn't work towels are dirty WiFi sucks tv is all Spanish speaking crap pool wasn't open on the plus rooms are big lol but unless you want a roach infested stink hole I'd stay elsewhereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r170210009-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>170210009</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Motel 6 is no longer predictable.  $41.39 and I lived</t>
+  </si>
+  <si>
+    <t>I stayed at Motel 6 Dallas - North, 13185 North Central Expwy.  Using online booking, $41.39 before tax.  Price I wanted and the area I was in; so keeping it simple, it was okay.  Much more like a privately owned low grade motel than what we used to could expect with any Motel 6.  Extremely dated room, kinda musty, but once I turned the a/c to a low temperature and checked the bed sheets for signs to confirm not previously used, I slept fine.  I would say more old and funky than dirty.  At 12:18 in the night an officer working security knocked on my door to return my drivers license being the check-in clerk didn't return it and apparently I didn't notice.  I guess the room phone didn't work?? I don't know, odd but not a problem.  Glad to have it back being I didn't even know I was without it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>andy p, Guest Relations Manager at Motel 6 Dallas Northwest, responded to this reviewResponded November 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at Motel 6 Dallas - North, 13185 North Central Expwy.  Using online booking, $41.39 before tax.  Price I wanted and the area I was in; so keeping it simple, it was okay.  Much more like a privately owned low grade motel than what we used to could expect with any Motel 6.  Extremely dated room, kinda musty, but once I turned the a/c to a low temperature and checked the bed sheets for signs to confirm not previously used, I slept fine.  I would say more old and funky than dirty.  At 12:18 in the night an officer working security knocked on my door to return my drivers license being the check-in clerk didn't return it and apparently I didn't notice.  I guess the room phone didn't work?? I don't know, odd but not a problem.  Glad to have it back being I didn't even know I was without it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r163419702-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>163419702</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t>amazing service, and nice large rooms, cant beat the 45 price tag either. its a interior property which is a plus. they have a huge pool and spa area. really didn't expect all this from a motel 6.seems the brand is on a mission now days. stayed at a few more locations after this experience and i had the pleasure of staying at the forest location which have the new modern rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>amazing service, and nice large rooms, cant beat the 45 price tag either. its a interior property which is a plus. they have a huge pool and spa area. really didn't expect all this from a motel 6.seems the brand is on a mission now days. stayed at a few more locations after this experience and i had the pleasure of staying at the forest location which have the new modern rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r155528313-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>155528313</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Not bad for a Motel 6</t>
+  </si>
+  <si>
+    <t>I used Hotwire (for the first and last time) and wasn't too happy to get assigned a Motel 6.  As another reviewer said, this property used to be a La Quinta Inn til about 2 years ago.  The good thing about that was an inside entrance, unlike most Motel 6 properties. Better than most Motel 6 properties I think.  It turned out that this property does not have a contract with Hotwire so when I arrived I had no reservation.  However the man at the front desk helped me contact Hotwire to get a refund and  I decided to stay there anyway since it was late and they had a room and it didn't look too bad.  I was in Dallas for a conference so I wasn't at the hotel much, but it served the purpose.  It wasn't as clean as it could have been, and had a slightly shabby feeling about it - cigarette burn holes in the bedspread, extra blanket that looked quite worn, tears in the shower curtain, etc.  My room was quiet though and I was able to sleep well.  I had no problem with my car in the parking lot.  It didn't seem like an unsafe area.  This motel doesn't serve breakfast, but there is an IHOP 2 blocks away and a Waffle House and Starbucks approx. 2 1/2 blocks away as well as several other restaurants.  It was easy to get on/off the 35E...I used Hotwire (for the first and last time) and wasn't too happy to get assigned a Motel 6.  As another reviewer said, this property used to be a La Quinta Inn til about 2 years ago.  The good thing about that was an inside entrance, unlike most Motel 6 properties. Better than most Motel 6 properties I think.  It turned out that this property does not have a contract with Hotwire so when I arrived I had no reservation.  However the man at the front desk helped me contact Hotwire to get a refund and  I decided to stay there anyway since it was late and they had a room and it didn't look too bad.  I was in Dallas for a conference so I wasn't at the hotel much, but it served the purpose.  It wasn't as clean as it could have been, and had a slightly shabby feeling about it - cigarette burn holes in the bedspread, extra blanket that looked quite worn, tears in the shower curtain, etc.  My room was quiet though and I was able to sleep well.  I had no problem with my car in the parking lot.  It didn't seem like an unsafe area.  This motel doesn't serve breakfast, but there is an IHOP 2 blocks away and a Waffle House and Starbucks approx. 2 1/2 blocks away as well as several other restaurants.  It was easy to get on/off the 35E freeway and get where I needed to go.  It was about 15-20 minutes from downtown Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>andy p, Manager at Motel 6 Dallas Northwest, responded to this reviewResponded November 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2013</t>
+  </si>
+  <si>
+    <t>I used Hotwire (for the first and last time) and wasn't too happy to get assigned a Motel 6.  As another reviewer said, this property used to be a La Quinta Inn til about 2 years ago.  The good thing about that was an inside entrance, unlike most Motel 6 properties. Better than most Motel 6 properties I think.  It turned out that this property does not have a contract with Hotwire so when I arrived I had no reservation.  However the man at the front desk helped me contact Hotwire to get a refund and  I decided to stay there anyway since it was late and they had a room and it didn't look too bad.  I was in Dallas for a conference so I wasn't at the hotel much, but it served the purpose.  It wasn't as clean as it could have been, and had a slightly shabby feeling about it - cigarette burn holes in the bedspread, extra blanket that looked quite worn, tears in the shower curtain, etc.  My room was quiet though and I was able to sleep well.  I had no problem with my car in the parking lot.  It didn't seem like an unsafe area.  This motel doesn't serve breakfast, but there is an IHOP 2 blocks away and a Waffle House and Starbucks approx. 2 1/2 blocks away as well as several other restaurants.  It was easy to get on/off the 35E...I used Hotwire (for the first and last time) and wasn't too happy to get assigned a Motel 6.  As another reviewer said, this property used to be a La Quinta Inn til about 2 years ago.  The good thing about that was an inside entrance, unlike most Motel 6 properties. Better than most Motel 6 properties I think.  It turned out that this property does not have a contract with Hotwire so when I arrived I had no reservation.  However the man at the front desk helped me contact Hotwire to get a refund and  I decided to stay there anyway since it was late and they had a room and it didn't look too bad.  I was in Dallas for a conference so I wasn't at the hotel much, but it served the purpose.  It wasn't as clean as it could have been, and had a slightly shabby feeling about it - cigarette burn holes in the bedspread, extra blanket that looked quite worn, tears in the shower curtain, etc.  My room was quiet though and I was able to sleep well.  I had no problem with my car in the parking lot.  It didn't seem like an unsafe area.  This motel doesn't serve breakfast, but there is an IHOP 2 blocks away and a Waffle House and Starbucks approx. 2 1/2 blocks away as well as several other restaurants.  It was easy to get on/off the 35E freeway and get where I needed to go.  It was about 15-20 minutes from downtown Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r143173559-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>143173559</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Great Room and Great customer service!!!</t>
+  </si>
+  <si>
+    <t>The customer service we received at this hotel was amazing! Fast, easy check-in and very friendly. The rooms are all suites and very clean and comfortable. The indoor pool area was very nice and our daughter had a great time swimming!   One of the best, if not THE BEST, Motel 6's that I've been in!!! Thanks.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r133805383-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>133805383</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>It's OK</t>
+  </si>
+  <si>
+    <t>You get what you pay for. If you're looking for a cheap place to stay in the area, it's not too bad. You might be able to find something better for just a bit more if you look.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r133546509-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>133546509</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>not as bad as youd assume</t>
+  </si>
+  <si>
+    <t>i stayed here for 2 nights in oct 2011 and one night they had a drunk guest in the hallway yelling. it was taken care of quickly.i stayed again for 1 night in may 2012 and it was a wonderful experience. we lved that the pool was indoor. the desk clerk is friendly the downside of the hotel is they seem to allow a few guests to "live" there and the children were constantly wondering the hallway. and the carpet could be shampooed but other that than for the price it was a good experience.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r115048473-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>115048473</t>
+  </si>
+  <si>
+    <t>07/05/2011</t>
+  </si>
+  <si>
+    <t>It's Now Motel 6 and Never Again</t>
+  </si>
+  <si>
+    <t>Read reviews about this Motel 6 as being brand new (not one that was another hotel before) and was expecting a new one. The clerk at the front desk was helpful when checking in but when we were struggling to open the front doors with our hands full he was standing by the front doors and just watched without offering to help.  The beds were new and very comfortable. The sheets and blankets were very clean and white but the bed cover when pulled back there was a huge (size of an apple) burned hole on the inside of it.  The room was extremely hot when we arrived at 8pm and it took till midnight to cool it down.  The floors felt uneven, the bathroom was so-so.  I just wouldn't recommend this hotel/motel to anyone of my friends or family.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Read reviews about this Motel 6 as being brand new (not one that was another hotel before) and was expecting a new one. The clerk at the front desk was helpful when checking in but when we were struggling to open the front doors with our hands full he was standing by the front doors and just watched without offering to help.  The beds were new and very comfortable. The sheets and blankets were very clean and white but the bed cover when pulled back there was a huge (size of an apple) burned hole on the inside of it.  The room was extremely hot when we arrived at 8pm and it took till midnight to cool it down.  The floors felt uneven, the bathroom was so-so.  I just wouldn't recommend this hotel/motel to anyone of my friends or family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r76232193-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>76232193</t>
+  </si>
+  <si>
+    <t>08/21/2010</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The staff was EXCEPTIONAL. After arriving late at night from a horrible trip ( I was trying to break the record for cancelled and rerouted flights in one day) I was greeted by a pleasant and helpful staff. The next morning the staff offered to print my boarding passes and were helpful with local directions and a few items I needed. Great breakfast--not just carbs like a lot of places. The room was clean and comfortable. Also a great price. But beware there is no shuttle service. Not an issue for me but the website does need to be updated.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r52314616-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>52314616</t>
+  </si>
+  <si>
+    <t>01/01/2010</t>
+  </si>
+  <si>
+    <t>Don't expect an airport shuttle</t>
+  </si>
+  <si>
+    <t>Overall this was an average stay.  The rooms were relatively clean, only one business card for the gentlemen's club next door was found in the pull-out couch bed.  Breakfast had a decent selection, though stay away from the powdered eggs and rock-hard sausages.  Biggest issue was the misleading features on the La Quinta website.  It listed "Airport Shuttle" for Dallas-Love Field.  The "shuttle" consisted of the desk clerk calling a taxi cab for drop-off and coordinating something for pickup on return.  Except if you didn't have a reservation on the return after sleeping the night before the trip and leaving your car at the hotel lot they would not pick you up from the airport.  There is NO shuttle to the hotel, only an "arrangement" that may or may not be available.  Pool also was dark for our entire stay -- don't know if it was working or not.The desk clerk was helpful in customer service for other required needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>Overall this was an average stay.  The rooms were relatively clean, only one business card for the gentlemen's club next door was found in the pull-out couch bed.  Breakfast had a decent selection, though stay away from the powdered eggs and rock-hard sausages.  Biggest issue was the misleading features on the La Quinta website.  It listed "Airport Shuttle" for Dallas-Love Field.  The "shuttle" consisted of the desk clerk calling a taxi cab for drop-off and coordinating something for pickup on return.  Except if you didn't have a reservation on the return after sleeping the night before the trip and leaving your car at the hotel lot they would not pick you up from the airport.  There is NO shuttle to the hotel, only an "arrangement" that may or may not be available.  Pool also was dark for our entire stay -- don't know if it was working or not.The desk clerk was helpful in customer service for other required needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r17419682-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>17419682</t>
+  </si>
+  <si>
+    <t>07/01/2008</t>
+  </si>
+  <si>
+    <t>Decent, affordable stay for family</t>
+  </si>
+  <si>
+    <t>In a grouping of average hotels, we found this Inn to have the only room to affordably and most comfortably accommodate our family of 5 (3 girls + parents) in one room for 3 nights (2 Q + sofabed). Water pressure was excellent; we had to request more towels but that was no problem. Beds were feather toppers on old mattress, so that's a personal opinion - mixed reviews among our family, but we did all sleep. The breakfast was better than expected, with a good variety of choices (same choices each day, but many options). The pool and hot tub area were nice and never really busy. All the staff we encountered was friendly and helpful. The area across the highway loop is not such a great area, but food, fuel &amp; shopping is pretty easily accessible past that small spot or even back the other way from the loop. In general, this hotel could use a little TLC, but it seems like wear-and-tear cosmetic stuff. We'd probably stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>In a grouping of average hotels, we found this Inn to have the only room to affordably and most comfortably accommodate our family of 5 (3 girls + parents) in one room for 3 nights (2 Q + sofabed). Water pressure was excellent; we had to request more towels but that was no problem. Beds were feather toppers on old mattress, so that's a personal opinion - mixed reviews among our family, but we did all sleep. The breakfast was better than expected, with a good variety of choices (same choices each day, but many options). The pool and hot tub area were nice and never really busy. All the staff we encountered was friendly and helpful. The area across the highway loop is not such a great area, but food, fuel &amp; shopping is pretty easily accessible past that small spot or even back the other way from the loop. In general, this hotel could use a little TLC, but it seems like wear-and-tear cosmetic stuff. We'd probably stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r15111105-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>15111105</t>
+  </si>
+  <si>
+    <t>04/17/2008</t>
+  </si>
+  <si>
+    <t>Perfectly fine for the price</t>
+  </si>
+  <si>
+    <t>The rate here was almost half what I was seeing at most other properties in Dallas, so my expectations weren't too high. Even after arriving, I wasn't completely sure about it, just because the area is kind of blah. Not bad, really. Just blah.But check-in was easy as could be and they put me in a queen bed suite. The good thing about that was there was a sitting room of sorts that separated the bedroom from the hallway. If noise was an issue, I didn't notice it. Room also had a fridge, two televisions (one in the bedroom, one in the sitting room).The AC was kind of loud, but I personally like to have a slight bit of room noise. Everything in the room worked fine.Only two minor complaints- the fitness center is in big need of a remodel. They just need to replace everything in there. And the breakfast buffet could use some work.But for $80, there's not much else to quibble about. It was better than I expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rate here was almost half what I was seeing at most other properties in Dallas, so my expectations weren't too high. Even after arriving, I wasn't completely sure about it, just because the area is kind of blah. Not bad, really. Just blah.But check-in was easy as could be and they put me in a queen bed suite. The good thing about that was there was a sitting room of sorts that separated the bedroom from the hallway. If noise was an issue, I didn't notice it. Room also had a fridge, two televisions (one in the bedroom, one in the sitting room).The AC was kind of loud, but I personally like to have a slight bit of room noise. Everything in the room worked fine.Only two minor complaints- the fitness center is in big need of a remodel. They just need to replace everything in there. And the breakfast buffet could use some work.But for $80, there's not much else to quibble about. It was better than I expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r12765523-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>12765523</t>
+  </si>
+  <si>
+    <t>01/18/2008</t>
+  </si>
+  <si>
+    <t>Great place to stay near Love Field</t>
+  </si>
+  <si>
+    <t>I admit that I didn't spend a whole lot of time at the hotel, but the time I did spend there was above expectations.
+I flew in to Love Field since I had to do some work up in McKinney.  i wanted a place that was close to the airport for my only night in town, so I didn't have to mess with traffic in the morning on the way to the airport.  This hotel is extremely clean, friendly, and the room I stayed in was great.  2 separate rooms, one with a king bed and TV, the other has a sleeper sofa and TV.  Great setup, I'm not sure what room type it was, so I don't know if they're all like that.  It was only me, so it was a waste of space, but I appreciated not feeling crammed.  Also, bathroom was nice and spacious.  I can't rate the room service since I only stayed one night, but when I got there it was very clean.
+I saw a lot of other hotel complaints about airplane noise and planes flying directly overhead.  I didn't notice this at all at this hotel, even though it was close to the airport....I had a very quiet night's rest.
+Anyway, typical La Quinta continental breakfast: Waffle maker, fruits, breads, cereal, juices.  That was just fine for me.
+If you don't have to fly to DFW, and want a place close to the...I admit that I didn't spend a whole lot of time at the hotel, but the time I did spend there was above expectations.I flew in to Love Field since I had to do some work up in McKinney.  i wanted a place that was close to the airport for my only night in town, so I didn't have to mess with traffic in the morning on the way to the airport.  This hotel is extremely clean, friendly, and the room I stayed in was great.  2 separate rooms, one with a king bed and TV, the other has a sleeper sofa and TV.  Great setup, I'm not sure what room type it was, so I don't know if they're all like that.  It was only me, so it was a waste of space, but I appreciated not feeling crammed.  Also, bathroom was nice and spacious.  I can't rate the room service since I only stayed one night, but when I got there it was very clean.I saw a lot of other hotel complaints about airplane noise and planes flying directly overhead.  I didn't notice this at all at this hotel, even though it was close to the airport....I had a very quiet night's rest.Anyway, typical La Quinta continental breakfast: Waffle maker, fruits, breads, cereal, juices.  That was just fine for me.If you don't have to fly to DFW, and want a place close to the airport to avoid the hassles, stay here...I don't think you'll regret it at all.It didn't seem like there was much to do around there though, so at least get yourself some transportation.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>I admit that I didn't spend a whole lot of time at the hotel, but the time I did spend there was above expectations.
+I flew in to Love Field since I had to do some work up in McKinney.  i wanted a place that was close to the airport for my only night in town, so I didn't have to mess with traffic in the morning on the way to the airport.  This hotel is extremely clean, friendly, and the room I stayed in was great.  2 separate rooms, one with a king bed and TV, the other has a sleeper sofa and TV.  Great setup, I'm not sure what room type it was, so I don't know if they're all like that.  It was only me, so it was a waste of space, but I appreciated not feeling crammed.  Also, bathroom was nice and spacious.  I can't rate the room service since I only stayed one night, but when I got there it was very clean.
+I saw a lot of other hotel complaints about airplane noise and planes flying directly overhead.  I didn't notice this at all at this hotel, even though it was close to the airport....I had a very quiet night's rest.
+Anyway, typical La Quinta continental breakfast: Waffle maker, fruits, breads, cereal, juices.  That was just fine for me.
+If you don't have to fly to DFW, and want a place close to the...I admit that I didn't spend a whole lot of time at the hotel, but the time I did spend there was above expectations.I flew in to Love Field since I had to do some work up in McKinney.  i wanted a place that was close to the airport for my only night in town, so I didn't have to mess with traffic in the morning on the way to the airport.  This hotel is extremely clean, friendly, and the room I stayed in was great.  2 separate rooms, one with a king bed and TV, the other has a sleeper sofa and TV.  Great setup, I'm not sure what room type it was, so I don't know if they're all like that.  It was only me, so it was a waste of space, but I appreciated not feeling crammed.  Also, bathroom was nice and spacious.  I can't rate the room service since I only stayed one night, but when I got there it was very clean.I saw a lot of other hotel complaints about airplane noise and planes flying directly overhead.  I didn't notice this at all at this hotel, even though it was close to the airport....I had a very quiet night's rest.Anyway, typical La Quinta continental breakfast: Waffle maker, fruits, breads, cereal, juices.  That was just fine for me.If you don't have to fly to DFW, and want a place close to the airport to avoid the hassles, stay here...I don't think you'll regret it at all.It didn't seem like there was much to do around there though, so at least get yourself some transportation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r3493584-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>3493584</t>
+  </si>
+  <si>
+    <t>05/22/2005</t>
+  </si>
+  <si>
+    <t>Spacious Rooms</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of its proximity to Love Field and offer of a complimentary airport shuttle.  The rooms were clean, attractively decorated, spacious and stocked with all the amenities that you would need.  Although located near several major highways and the airport, it was quite and peaceful.  Breakfast was included.  This hotel is an excellent value for the price.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1232,1782 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>154</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>229</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_549.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_549.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Matthew F</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Dustin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r479987180-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>I checked into the motel 6 dallas northwest on 4/28/2017, that evening I found a bed bug  on the sheets and took pictures and video to show the front desk.  The manager denied the hotel having a bed bug issue, and said I must have brought the bed bugs with me ... Travelers beware.More</t>
   </si>
   <si>
+    <t>Charlie N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r458830052-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Had a real long layover before an international flight wanted somewhere cheap to lay down and take a shower. This place was it. For under 60 bucks we got a queen size bed and a place to get clean and change clothes. They also have a shuttle to the airport so it was actually pretty convenientMore</t>
   </si>
   <si>
+    <t>Jill B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r378307048-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Jasmine O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r369368611-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>recentlybeen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r355634332-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>We had quite a long wait for the motel shuttle van. There was no obvious 'bus stop' for Motel 6 at the airport and no free phone, cost us an international call to get through to the reception at the hotel. We booked the return van for the morning but it was heavily overbooked by airline staff who felt they had preference over us as they used the service on a regular basis!   Basic hotel accommodation but it was clean. You get what you pay for anywhere in the world. Would I stay here again? Probably not, there are plenty of other motels in the area.</t>
   </si>
   <si>
+    <t>Remy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r340284033-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Shirley R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r291624798-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Andreas H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r279814461-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Edward J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r270898379-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Kelly K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r260238630-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Nik212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r259199974-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -396,6 +432,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>danny R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r212406888-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t xml:space="preserve">So I stayed in the room 211 and the cleanliness was horrible, 1st I found a condom and oil in 1 of the drawer 2nd hair on the bathroom floor 3rd Roches in shower 4th presentation was not there 5th the freezer was all frozen felt bad so I unplugged it, make sure to check the rooms before turning them vacant ready </t>
   </si>
   <si>
+    <t>Bkelly5512</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r195751300-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t>First off they didn't honor my employee rate. Which is 30% off. So didn't get that. I show up to the hotel and the manager cancelled my reservation even though I reserved it with a card which means I get the room guaranteed all night. Then I gave a CP# and they wouldn't even honor that. Hands down worst motel 6 experience ever. I will never stay here again and I'll be sure to call guest relations in the morning as soon as they open up. More</t>
   </si>
   <si>
+    <t>bigdaddy1312</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r194845068-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t>When we got to the hotel it stunk like a dump, was told that breakfast was served and there is only coffee hot water doesn't work a/c doesn't work towels are dirty WiFi sucks tv is all Spanish speaking crap pool wasn't open on the plus rooms are big lol but unless you want a roach infested stink hole I'd stay elsewhereMore</t>
   </si>
   <si>
+    <t>Sharon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r170210009-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -492,6 +540,9 @@
     <t>I stayed at Motel 6 Dallas - North, 13185 North Central Expwy.  Using online booking, $41.39 before tax.  Price I wanted and the area I was in; so keeping it simple, it was okay.  Much more like a privately owned low grade motel than what we used to could expect with any Motel 6.  Extremely dated room, kinda musty, but once I turned the a/c to a low temperature and checked the bed sheets for signs to confirm not previously used, I slept fine.  I would say more old and funky than dirty.  At 12:18 in the night an officer working security knocked on my door to return my drivers license being the check-in clerk didn't return it and apparently I didn't notice.  I guess the room phone didn't work?? I don't know, odd but not a problem.  Glad to have it back being I didn't even know I was without it.More</t>
   </si>
   <si>
+    <t>Chad S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r163419702-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -513,6 +564,9 @@
     <t>amazing service, and nice large rooms, cant beat the 45 price tag either. its a interior property which is a plus. they have a huge pool and spa area. really didn't expect all this from a motel 6.seems the brand is on a mission now days. stayed at a few more locations after this experience and i had the pleasure of staying at the forest location which have the new modern rooms.More</t>
   </si>
   <si>
+    <t>darcforest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r155528313-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -537,6 +591,9 @@
     <t>I used Hotwire (for the first and last time) and wasn't too happy to get assigned a Motel 6.  As another reviewer said, this property used to be a La Quinta Inn til about 2 years ago.  The good thing about that was an inside entrance, unlike most Motel 6 properties. Better than most Motel 6 properties I think.  It turned out that this property does not have a contract with Hotwire so when I arrived I had no reservation.  However the man at the front desk helped me contact Hotwire to get a refund and  I decided to stay there anyway since it was late and they had a room and it didn't look too bad.  I was in Dallas for a conference so I wasn't at the hotel much, but it served the purpose.  It wasn't as clean as it could have been, and had a slightly shabby feeling about it - cigarette burn holes in the bedspread, extra blanket that looked quite worn, tears in the shower curtain, etc.  My room was quiet though and I was able to sleep well.  I had no problem with my car in the parking lot.  It didn't seem like an unsafe area.  This motel doesn't serve breakfast, but there is an IHOP 2 blocks away and a Waffle House and Starbucks approx. 2 1/2 blocks away as well as several other restaurants.  It was easy to get on/off the 35E...I used Hotwire (for the first and last time) and wasn't too happy to get assigned a Motel 6.  As another reviewer said, this property used to be a La Quinta Inn til about 2 years ago.  The good thing about that was an inside entrance, unlike most Motel 6 properties. Better than most Motel 6 properties I think.  It turned out that this property does not have a contract with Hotwire so when I arrived I had no reservation.  However the man at the front desk helped me contact Hotwire to get a refund and  I decided to stay there anyway since it was late and they had a room and it didn't look too bad.  I was in Dallas for a conference so I wasn't at the hotel much, but it served the purpose.  It wasn't as clean as it could have been, and had a slightly shabby feeling about it - cigarette burn holes in the bedspread, extra blanket that looked quite worn, tears in the shower curtain, etc.  My room was quiet though and I was able to sleep well.  I had no problem with my car in the parking lot.  It didn't seem like an unsafe area.  This motel doesn't serve breakfast, but there is an IHOP 2 blocks away and a Waffle House and Starbucks approx. 2 1/2 blocks away as well as several other restaurants.  It was easy to get on/off the 35E freeway and get where I needed to go.  It was about 15-20 minutes from downtown Dallas.More</t>
   </si>
   <si>
+    <t>Austin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r143173559-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -555,6 +612,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Cody S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r133805383-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -573,6 +633,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>DaniElla B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r133546509-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -591,6 +654,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>Karolyn70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r115048473-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -612,6 +678,9 @@
     <t>Read reviews about this Motel 6 as being brand new (not one that was another hotel before) and was expecting a new one. The clerk at the front desk was helpful when checking in but when we were struggling to open the front doors with our hands full he was standing by the front doors and just watched without offering to help.  The beds were new and very comfortable. The sheets and blankets were very clean and white but the bed cover when pulled back there was a huge (size of an apple) burned hole on the inside of it.  The room was extremely hot when we arrived at 8pm and it took till midnight to cool it down.  The floors felt uneven, the bathroom was so-so.  I just wouldn't recommend this hotel/motel to anyone of my friends or family.More</t>
   </si>
   <si>
+    <t>hokiemom05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r76232193-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -630,6 +699,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>OldOwlEyes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r52314616-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -651,6 +723,9 @@
     <t>Overall this was an average stay.  The rooms were relatively clean, only one business card for the gentlemen's club next door was found in the pull-out couch bed.  Breakfast had a decent selection, though stay away from the powdered eggs and rock-hard sausages.  Biggest issue was the misleading features on the La Quinta website.  It listed "Airport Shuttle" for Dallas-Love Field.  The "shuttle" consisted of the desk clerk calling a taxi cab for drop-off and coordinating something for pickup on return.  Except if you didn't have a reservation on the return after sleeping the night before the trip and leaving your car at the hotel lot they would not pick you up from the airport.  There is NO shuttle to the hotel, only an "arrangement" that may or may not be available.  Pool also was dark for our entire stay -- don't know if it was working or not.The desk clerk was helpful in customer service for other required needs.More</t>
   </si>
   <si>
+    <t>acemom98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r17419682-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -672,6 +747,9 @@
     <t>In a grouping of average hotels, we found this Inn to have the only room to affordably and most comfortably accommodate our family of 5 (3 girls + parents) in one room for 3 nights (2 Q + sofabed). Water pressure was excellent; we had to request more towels but that was no problem. Beds were feather toppers on old mattress, so that's a personal opinion - mixed reviews among our family, but we did all sleep. The breakfast was better than expected, with a good variety of choices (same choices each day, but many options). The pool and hot tub area were nice and never really busy. All the staff we encountered was friendly and helpful. The area across the highway loop is not such a great area, but food, fuel &amp; shopping is pretty easily accessible past that small spot or even back the other way from the loop. In general, this hotel could use a little TLC, but it seems like wear-and-tear cosmetic stuff. We'd probably stay there again.More</t>
   </si>
   <si>
+    <t>kcboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r15111105-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -688,6 +766,9 @@
   </si>
   <si>
     <t>The rate here was almost half what I was seeing at most other properties in Dallas, so my expectations weren't too high. Even after arriving, I wasn't completely sure about it, just because the area is kind of blah. Not bad, really. Just blah.But check-in was easy as could be and they put me in a queen bed suite. The good thing about that was there was a sitting room of sorts that separated the bedroom from the hallway. If noise was an issue, I didn't notice it. Room also had a fridge, two televisions (one in the bedroom, one in the sitting room).The AC was kind of loud, but I personally like to have a slight bit of room noise. Everything in the room worked fine.Only two minor complaints- the fitness center is in big need of a remodel. They just need to replace everything in there. And the breakfast buffet could use some work.But for $80, there's not much else to quibble about. It was better than I expected.More</t>
+  </si>
+  <si>
+    <t>Gringo-de-la-mancha</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r12765523-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -717,6 +798,9 @@
 I saw a lot of other hotel complaints about airplane noise and planes flying directly overhead.  I didn't notice this at all at this hotel, even though it was close to the airport....I had a very quiet night's rest.
 Anyway, typical La Quinta continental breakfast: Waffle maker, fruits, breads, cereal, juices.  That was just fine for me.
 If you don't have to fly to DFW, and want a place close to the...I admit that I didn't spend a whole lot of time at the hotel, but the time I did spend there was above expectations.I flew in to Love Field since I had to do some work up in McKinney.  i wanted a place that was close to the airport for my only night in town, so I didn't have to mess with traffic in the morning on the way to the airport.  This hotel is extremely clean, friendly, and the room I stayed in was great.  2 separate rooms, one with a king bed and TV, the other has a sleeper sofa and TV.  Great setup, I'm not sure what room type it was, so I don't know if they're all like that.  It was only me, so it was a waste of space, but I appreciated not feeling crammed.  Also, bathroom was nice and spacious.  I can't rate the room service since I only stayed one night, but when I got there it was very clean.I saw a lot of other hotel complaints about airplane noise and planes flying directly overhead.  I didn't notice this at all at this hotel, even though it was close to the airport....I had a very quiet night's rest.Anyway, typical La Quinta continental breakfast: Waffle maker, fruits, breads, cereal, juices.  That was just fine for me.If you don't have to fly to DFW, and want a place close to the airport to avoid the hassles, stay here...I don't think you'll regret it at all.It didn't seem like there was much to do around there though, so at least get yourself some transportation.More</t>
+  </si>
+  <si>
+    <t>becly</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r3493584-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -1236,43 +1320,47 @@
       <c r="A2" t="n">
         <v>33671</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1286,50 +1374,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33671</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>38493</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1345,56 +1437,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33671</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169233</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1406,56 +1502,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33671</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>8370</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1475,50 +1575,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33671</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1538,41 +1642,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33671</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
@@ -1591,50 +1699,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33671</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1654,50 +1766,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33671</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>29312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1711,50 +1827,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33671</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1768,50 +1888,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33671</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>86879</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1825,50 +1949,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33671</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>23415</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1888,50 +2016,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33671</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1945,41 +2077,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33671</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169239</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -2008,41 +2144,45 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33671</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169240</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -2069,56 +2209,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="X15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33671</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169241</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2130,56 +2274,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33671</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2201,56 +2349,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33671</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>10172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2272,56 +2424,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="X18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33671</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169242</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2343,56 +2499,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33671</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169243</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2416,50 +2576,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33671</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>37702</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2483,50 +2647,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33671</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169244</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2550,50 +2718,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33671</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169245</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -2613,50 +2785,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33671</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>169246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2680,50 +2856,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33671</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169247</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2747,50 +2927,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33671</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>169248</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -2814,41 +2998,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33671</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>169249</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -2877,50 +3065,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33671</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>169250</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -2944,41 +3136,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33671</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>169251</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
@@ -3005,7 +3201,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_549.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_549.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="368">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Matthew F</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r528855686-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109453</t>
+  </si>
+  <si>
+    <t>528855686</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>7 Year Anniversary Trip</t>
+  </si>
+  <si>
+    <t>Booked a room at this Motel 6 to celebrate my husband and my seven year anniversary.  Booked the room in advance and was really easy  to book and check in when we arrived late Friday night...this was not a corporate owned Motel 6, but a franchised one...Motel was definitely cleaner than most franchises...room was described as Executive King Suite...while definitely could’ve been cleaner was not that bad considering, couch in the sitting area was old with plenty of stains on it, would think that they would replace it when it starts looking like that but what can you do...bathroom was clean, sink was good, had a microwave in the room without a turn plate in it and a little bar sink by it with a mini fridge...only thing missing to make this a kitchenette was a small stove...bed was comfortable and clean with only three pillows considering it’s a king size bed...would think that it would have four considering they are thin pillows and most people use two...we typically take extra pillows with us on trips though so it wasn’t that big of a deal...TV was in the bedroom area that was separated by two sets of French doors, really a neat design for a room for a Motel 6...did not have cable, only air channels, we took our Fire Stick to be able to watch tv...WIFI worked well with no problems...pool is indoors on first floor, had a hot...Booked a room at this Motel 6 to celebrate my husband and my seven year anniversary.  Booked the room in advance and was really easy  to book and check in when we arrived late Friday night...this was not a corporate owned Motel 6, but a franchised one...Motel was definitely cleaner than most franchises...room was described as Executive King Suite...while definitely could’ve been cleaner was not that bad considering, couch in the sitting area was old with plenty of stains on it, would think that they would replace it when it starts looking like that but what can you do...bathroom was clean, sink was good, had a microwave in the room without a turn plate in it and a little bar sink by it with a mini fridge...only thing missing to make this a kitchenette was a small stove...bed was comfortable and clean with only three pillows considering it’s a king size bed...would think that it would have four considering they are thin pillows and most people use two...we typically take extra pillows with us on trips though so it wasn’t that big of a deal...TV was in the bedroom area that was separated by two sets of French doors, really a neat design for a room for a Motel 6...did not have cable, only air channels, we took our Fire Stick to be able to watch tv...WIFI worked well with no problems...pool is indoors on first floor, had a hot tub but was not working...on day of check out, housekeepers kept knocking on door starting at 9:30-10:00, with check out being at 11:00...never have I stayed at a motel that was so pushy to get you out...customer service skills was lacking from front desk to housekeepers, no breakfast and then the front desk clerk called as we were leaving out the room to see if we were leaving...most likely would not use this motel again but overall not too bad for the price MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Booked a room at this Motel 6 to celebrate my husband and my seven year anniversary.  Booked the room in advance and was really easy  to book and check in when we arrived late Friday night...this was not a corporate owned Motel 6, but a franchised one...Motel was definitely cleaner than most franchises...room was described as Executive King Suite...while definitely could’ve been cleaner was not that bad considering, couch in the sitting area was old with plenty of stains on it, would think that they would replace it when it starts looking like that but what can you do...bathroom was clean, sink was good, had a microwave in the room without a turn plate in it and a little bar sink by it with a mini fridge...only thing missing to make this a kitchenette was a small stove...bed was comfortable and clean with only three pillows considering it’s a king size bed...would think that it would have four considering they are thin pillows and most people use two...we typically take extra pillows with us on trips though so it wasn’t that big of a deal...TV was in the bedroom area that was separated by two sets of French doors, really a neat design for a room for a Motel 6...did not have cable, only air channels, we took our Fire Stick to be able to watch tv...WIFI worked well with no problems...pool is indoors on first floor, had a hot...Booked a room at this Motel 6 to celebrate my husband and my seven year anniversary.  Booked the room in advance and was really easy  to book and check in when we arrived late Friday night...this was not a corporate owned Motel 6, but a franchised one...Motel was definitely cleaner than most franchises...room was described as Executive King Suite...while definitely could’ve been cleaner was not that bad considering, couch in the sitting area was old with plenty of stains on it, would think that they would replace it when it starts looking like that but what can you do...bathroom was clean, sink was good, had a microwave in the room without a turn plate in it and a little bar sink by it with a mini fridge...only thing missing to make this a kitchenette was a small stove...bed was comfortable and clean with only three pillows considering it’s a king size bed...would think that it would have four considering they are thin pillows and most people use two...we typically take extra pillows with us on trips though so it wasn’t that big of a deal...TV was in the bedroom area that was separated by two sets of French doors, really a neat design for a room for a Motel 6...did not have cable, only air channels, we took our Fire Stick to be able to watch tv...WIFI worked well with no problems...pool is indoors on first floor, had a hot tub but was not working...on day of check out, housekeepers kept knocking on door starting at 9:30-10:00, with check out being at 11:00...never have I stayed at a motel that was so pushy to get you out...customer service skills was lacking from front desk to housekeepers, no breakfast and then the front desk clerk called as we were leaving out the room to see if we were leaving...most likely would not use this motel again but overall not too bad for the price More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r496464437-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>496464437</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Kind of gross</t>
+  </si>
+  <si>
+    <t>Everything is dingy and rather beat up. The floors on the second level rooms seem to be sagging. Lots of stains on the furniture. The bed was clean enough though and the staff are friendly. Just needs some upkeep</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r486093250-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>109453</t>
-  </si>
-  <si>
     <t>486093250</t>
   </si>
   <si>
@@ -180,12 +222,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Dustin B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r479987180-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -216,9 +252,6 @@
     <t>I checked into the motel 6 dallas northwest on 4/28/2017, that evening I found a bed bug  on the sheets and took pictures and video to show the front desk.  The manager denied the hotel having a bed bug issue, and said I must have brought the bed bugs with me ... Travelers beware.More</t>
   </si>
   <si>
-    <t>Charlie N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r458830052-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -240,7 +273,46 @@
     <t>Had a real long layover before an international flight wanted somewhere cheap to lay down and take a shower. This place was it. For under 60 bucks we got a queen size bed and a place to get clean and change clothes. They also have a shuttle to the airport so it was actually pretty convenientMore</t>
   </si>
   <si>
-    <t>Jill B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r411084456-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>411084456</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>I wish we would have kept on driving</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I have ever stayed.  The only reason we stayed is because we had driven 12 hours and couldn't go on any further.  The smell of the room was awful.  There are no blankets on the bed.  No hair dryer, no iron, no shampoo.  No lock for the latch on the door.  We slept the night and got out as quick as we could.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r408608276-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>408608276</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>average hotel, close to airport</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently located near to the airport, but we did not receive adequate information about the shuttle when we booked. At the airport there are free phone calls to various hotels, but Motel 6 is not included on the list.We had to borrow a phone to call the motel front desk to get information on the shuttle. The shuttle is white in colour with the name "hotel connection shuttle" on the side, Motel 6 is also shown on the side of the shuttle with the other destinations.We had a special request to check in after midnight, as we had a late flight. We were told on arrival that the room was not available, as our booking was cancelled due to late arrival i.e. after 6pm. We were not happy with this, and eventually got a room after our online request was confirmed. There is a drink vending machine, but no food available nearby. Ensure that you buy snacks at the airport if you are staying here on a short layover. Book the shuttle for the next day on arrival by writing in the book provided. This will ensure that you will get the required shuttle, as it operates at scheduled times.The bed was comfortable and the room was quiet. I would recommend for an overnight stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently located near to the airport, but we did not receive adequate information about the shuttle when we booked. At the airport there are free phone calls to various hotels, but Motel 6 is not included on the list.We had to borrow a phone to call the motel front desk to get information on the shuttle. The shuttle is white in colour with the name "hotel connection shuttle" on the side, Motel 6 is also shown on the side of the shuttle with the other destinations.We had a special request to check in after midnight, as we had a late flight. We were told on arrival that the room was not available, as our booking was cancelled due to late arrival i.e. after 6pm. We were not happy with this, and eventually got a room after our online request was confirmed. There is a drink vending machine, but no food available nearby. Ensure that you buy snacks at the airport if you are staying here on a short layover. Book the shuttle for the next day on arrival by writing in the book provided. This will ensure that you will get the required shuttle, as it operates at scheduled times.The bed was comfortable and the room was quiet. I would recommend for an overnight stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r378307048-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -261,9 +333,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Jasmine O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r369368611-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,12 +351,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>recentlybeen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r355634332-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,7 +366,37 @@
     <t>We had quite a long wait for the motel shuttle van. There was no obvious 'bus stop' for Motel 6 at the airport and no free phone, cost us an international call to get through to the reception at the hotel. We booked the return van for the morning but it was heavily overbooked by airline staff who felt they had preference over us as they used the service on a regular basis!   Basic hotel accommodation but it was clean. You get what you pay for anywhere in the world. Would I stay here again? Probably not, there are plenty of other motels in the area.</t>
   </si>
   <si>
-    <t>Remy L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r352529153-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>352529153</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>Always welcoming!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at this location numerous times! Feels great to be welcomed back each time! At affordable prices and spacious rooms, this is my go to hotel each time I stay in Dallas! A great perk is the pool and the friendly staff! I recommend this hotel! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r347609768-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>347609768</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Didn't feel safe!</t>
+  </si>
+  <si>
+    <t>Worst hotel stay of my life. An employee looked at me and my daughter like we were pieces of meat he wanted to devour. We were hit on by a naked guest in a very-open-robe as we walked by after our concert. I was nearly jumped by 3 guys near the stairwell for not giving them a cigarette I didn't have. It was absolutely awful!!!! We paid for 2 nights but left after the first. The one and only good thing about this experience was that the manager refunded our 2nd night after my complaints. Don't risk it. Especially if you're a female traveling alone or with other girls.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r340284033-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -324,9 +417,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>Shirley R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r291624798-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -345,9 +435,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Andreas H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r279814461-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -369,7 +456,40 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Edward J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r279144143-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>279144143</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>A surprise from Motel 6</t>
+  </si>
+  <si>
+    <t>New paint, upgrades, clean. I stayed at two Motel 6 during my trip &amp;'this was by far the best one. Rooms were larger than any Motel 6 I have ever stayed in. Staff told me it was a remodeled LaQuinta, so that explained the room size. These motels provide basic service, but if a clean room and friendly staff at a low price is what you want this is your place. Ask for military discount if you qualify.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r277042727-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>277042727</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Decent overall "refreshed" Motel 6</t>
+  </si>
+  <si>
+    <t>This used to be a La Quinta . . . it's a "refreshed" Motel 6 . . . Hallways &amp; Rooms were clean . . . recently updated with newly paint and flooring.  Bathroom was alright, mostly clean.  Beds were comfortable and clean.  Pool and spa area could have been a bit cleaner, but alright.  Stairwell smelled weird and had trash, but pretty sure that was from a unkind customer who tried to smoke.  Front staff was a bit off, not rude, but off.  Put out a bit when we asked for our keys to be re-swiped because they didn't work and when we had to ask for more toilet paper the second day of our stay.  Wi-Fi was free and worked the first little while we were there, but for the most part pretty much non-existant. Room had a microwave and a frig, but no Coffee maker,  We had a two queen suite with a pull out couch. Overall, it was a nice room . . . We would probably stay there again, but the Baymont across the street is betterMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This used to be a La Quinta . . . it's a "refreshed" Motel 6 . . . Hallways &amp; Rooms were clean . . . recently updated with newly paint and flooring.  Bathroom was alright, mostly clean.  Beds were comfortable and clean.  Pool and spa area could have been a bit cleaner, but alright.  Stairwell smelled weird and had trash, but pretty sure that was from a unkind customer who tried to smoke.  Front staff was a bit off, not rude, but off.  Put out a bit when we asked for our keys to be re-swiped because they didn't work and when we had to ask for more toilet paper the second day of our stay.  Wi-Fi was free and worked the first little while we were there, but for the most part pretty much non-existant. Room had a microwave and a frig, but no Coffee maker,  We had a two queen suite with a pull out couch. Overall, it was a nice room . . . We would probably stay there again, but the Baymont across the street is betterMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r270898379-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -387,12 +507,6 @@
     <t>It's not your typical Motel 6, my room had a living room &amp; a bedroom area like a regular 1 room apartment. It mostly would of been a other motel chain before Motel 6 took over. Had a small refrigerator &amp; microwave. Would book a room here again if I come back to town.</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>Kelly K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r260238630-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -411,9 +525,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Nik212</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r259199974-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -432,7 +543,58 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>danny R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r232906805-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>232906805</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>Roach motel</t>
+  </si>
+  <si>
+    <t>Basic rooms, bathroom looked and smelled like a public restroom! Non-smoking room reeked like nasty cigarettes! Had to get key cards re-keyed after every outing. To top all that, killed 3 huge roaches. You couldn't pay me stay there again!!!!!!!Won't let me post pics of roaches??MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas Northwest, responded to this reviewResponded October 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2014</t>
+  </si>
+  <si>
+    <t>Basic rooms, bathroom looked and smelled like a public restroom! Non-smoking room reeked like nasty cigarettes! Had to get key cards re-keyed after every outing. To top all that, killed 3 huge roaches. You couldn't pay me stay there again!!!!!!!Won't let me post pics of roaches??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r224769114-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>224769114</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Dump</t>
+  </si>
+  <si>
+    <t>Bugs, cops and hookers. This motel needs to be shut down.  It has not been updated in years. Mold around the window with one of the loudest ac units I have ever heard.  Holes in the wall and carpet and this was our second room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas Northwest, responded to this reviewResponded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Bugs, cops and hookers. This motel needs to be shut down.  It has not been updated in years. Mold around the window with one of the loudest ac units I have ever heard.  Holes in the wall and carpet and this was our second room.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r212406888-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -450,9 +612,6 @@
     <t xml:space="preserve">So I stayed in the room 211 and the cleanliness was horrible, 1st I found a condom and oil in 1 of the drawer 2nd hair on the bathroom floor 3rd Roches in shower 4th presentation was not there 5th the freezer was all frozen felt bad so I unplugged it, make sure to check the rooms before turning them vacant ready </t>
   </si>
   <si>
-    <t>Bkelly5512</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r195751300-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -477,9 +636,6 @@
     <t>First off they didn't honor my employee rate. Which is 30% off. So didn't get that. I show up to the hotel and the manager cancelled my reservation even though I reserved it with a card which means I get the room guaranteed all night. Then I gave a CP# and they wouldn't even honor that. Hands down worst motel 6 experience ever. I will never stay here again and I'll be sure to call guest relations in the morning as soon as they open up. More</t>
   </si>
   <si>
-    <t>bigdaddy1312</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r194845068-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -507,7 +663,52 @@
     <t>When we got to the hotel it stunk like a dump, was told that breakfast was served and there is only coffee hot water doesn't work a/c doesn't work towels are dirty WiFi sucks tv is all Spanish speaking crap pool wasn't open on the plus rooms are big lol but unless you want a roach infested stink hole I'd stay elsewhereMore</t>
   </si>
   <si>
-    <t>Sharon M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r180989912-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>180989912</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>YOU GET WHAT YOU PAY FOR, SOMETIMES?</t>
+  </si>
+  <si>
+    <t>IT IS WHAT IT IS. Stayed here a year and a half ago and then again this weekend. If you stay here, MAKE SURE YOU GET A ROOM ON THE TOP FLOOR. This was the first time I have ever had to change rooms at a motel. The reason being that after 3 complaints to the front office about kids on the floor above us sound like a herd of cattle nonstop running back and fourth from 6 A.M. to 3 P.M. Front desk clerk said he called their room, but it did not do any good. He told me I could change rooms and I told him give me a room on the top 3rd floor. Now for the bad. The pisser in the first room would run at all random times in the night. Carpet is in rough shape. This hotel needs to be completely redone or else just tear it down and start all over. They do have an indoor pool, but did not have time to use it. The clientel is a little shady, as was the 3rd floor hallways. The elevator had trash in it and it took forever to go up and down. The good. Location is nice and safe and their is a Baymont inn right across the parking lot where I would stay next time. Room was $60 something a night after taxes. SOMTIMES YOU GET WHAT YOU PAY FOR? Im not...IT IS WHAT IT IS. Stayed here a year and a half ago and then again this weekend. If you stay here, MAKE SURE YOU GET A ROOM ON THE TOP FLOOR. This was the first time I have ever had to change rooms at a motel. The reason being that after 3 complaints to the front office about kids on the floor above us sound like a herd of cattle nonstop running back and fourth from 6 A.M. to 3 P.M. Front desk clerk said he called their room, but it did not do any good. He told me I could change rooms and I told him give me a room on the top 3rd floor. Now for the bad. The pisser in the first room would run at all random times in the night. Carpet is in rough shape. This hotel needs to be completely redone or else just tear it down and start all over. They do have an indoor pool, but did not have time to use it. The clientel is a little shady, as was the 3rd floor hallways. The elevator had trash in it and it took forever to go up and down. The good. Location is nice and safe and their is a Baymont inn right across the parking lot where I would stay next time. Room was $60 something a night after taxes. SOMTIMES YOU GET WHAT YOU PAY FOR? Im not complaing about the price though, just the bad shape they have let the motel go to with out remodeling. Also the guy at the front desk was very nice and understood why I wanted to change rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>andy p, Guest Relations Manager at Motel 6 Dallas Northwest, responded to this reviewResponded November 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2013</t>
+  </si>
+  <si>
+    <t>IT IS WHAT IT IS. Stayed here a year and a half ago and then again this weekend. If you stay here, MAKE SURE YOU GET A ROOM ON THE TOP FLOOR. This was the first time I have ever had to change rooms at a motel. The reason being that after 3 complaints to the front office about kids on the floor above us sound like a herd of cattle nonstop running back and fourth from 6 A.M. to 3 P.M. Front desk clerk said he called their room, but it did not do any good. He told me I could change rooms and I told him give me a room on the top 3rd floor. Now for the bad. The pisser in the first room would run at all random times in the night. Carpet is in rough shape. This hotel needs to be completely redone or else just tear it down and start all over. They do have an indoor pool, but did not have time to use it. The clientel is a little shady, as was the 3rd floor hallways. The elevator had trash in it and it took forever to go up and down. The good. Location is nice and safe and their is a Baymont inn right across the parking lot where I would stay next time. Room was $60 something a night after taxes. SOMTIMES YOU GET WHAT YOU PAY FOR? Im not...IT IS WHAT IT IS. Stayed here a year and a half ago and then again this weekend. If you stay here, MAKE SURE YOU GET A ROOM ON THE TOP FLOOR. This was the first time I have ever had to change rooms at a motel. The reason being that after 3 complaints to the front office about kids on the floor above us sound like a herd of cattle nonstop running back and fourth from 6 A.M. to 3 P.M. Front desk clerk said he called their room, but it did not do any good. He told me I could change rooms and I told him give me a room on the top 3rd floor. Now for the bad. The pisser in the first room would run at all random times in the night. Carpet is in rough shape. This hotel needs to be completely redone or else just tear it down and start all over. They do have an indoor pool, but did not have time to use it. The clientel is a little shady, as was the 3rd floor hallways. The elevator had trash in it and it took forever to go up and down. The good. Location is nice and safe and their is a Baymont inn right across the parking lot where I would stay next time. Room was $60 something a night after taxes. SOMTIMES YOU GET WHAT YOU PAY FOR? Im not complaing about the price though, just the bad shape they have let the motel go to with out remodeling. Also the guy at the front desk was very nice and understood why I wanted to change rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r177579265-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>177579265</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Motel 6 - Dallas TX</t>
+  </si>
+  <si>
+    <t>This place is what it is. It's not the Hilton Anatole. Though that's not far away (a couple blocks). It's a cheap hotel, I paid $43 bucks a night. Compared to 100 to 150 dollars per night less than a mile away it's a reasonable deal.Not only do places like the Hilton charge very high rates they also tack on all kinds of additional taxes and fees and since I just needed an inexpensive place to crash for a couple nights while out in Dallas for an Energy convention, this worked out just fine. Not bad for a Motel-6  the room was very clean... Tile &amp; laminate floors instead of dingy carpet And the Internet actually worked better than at the Hilton garden.  Management does not allow parties or Hourly guests so the place was quiet &amp; I got a great nights sleep which was much needed after my drive from CAMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>This place is what it is. It's not the Hilton Anatole. Though that's not far away (a couple blocks). It's a cheap hotel, I paid $43 bucks a night. Compared to 100 to 150 dollars per night less than a mile away it's a reasonable deal.Not only do places like the Hilton charge very high rates they also tack on all kinds of additional taxes and fees and since I just needed an inexpensive place to crash for a couple nights while out in Dallas for an Energy convention, this worked out just fine. Not bad for a Motel-6  the room was very clean... Tile &amp; laminate floors instead of dingy carpet And the Internet actually worked better than at the Hilton garden.  Management does not allow parties or Hourly guests so the place was quiet &amp; I got a great nights sleep which was much needed after my drive from CAMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r170210009-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -528,21 +729,9 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>andy p, Guest Relations Manager at Motel 6 Dallas Northwest, responded to this reviewResponded November 11, 2013</t>
-  </si>
-  <si>
-    <t>Responded November 11, 2013</t>
-  </si>
-  <si>
     <t>I stayed at Motel 6 Dallas - North, 13185 North Central Expwy.  Using online booking, $41.39 before tax.  Price I wanted and the area I was in; so keeping it simple, it was okay.  Much more like a privately owned low grade motel than what we used to could expect with any Motel 6.  Extremely dated room, kinda musty, but once I turned the a/c to a low temperature and checked the bed sheets for signs to confirm not previously used, I slept fine.  I would say more old and funky than dirty.  At 12:18 in the night an officer working security knocked on my door to return my drivers license being the check-in clerk didn't return it and apparently I didn't notice.  I guess the room phone didn't work?? I don't know, odd but not a problem.  Glad to have it back being I didn't even know I was without it.More</t>
   </si>
   <si>
-    <t>Chad S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r163419702-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -564,9 +753,6 @@
     <t>amazing service, and nice large rooms, cant beat the 45 price tag either. its a interior property which is a plus. they have a huge pool and spa area. really didn't expect all this from a motel 6.seems the brand is on a mission now days. stayed at a few more locations after this experience and i had the pleasure of staying at the forest location which have the new modern rooms.More</t>
   </si>
   <si>
-    <t>darcforest</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r155528313-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -591,7 +777,43 @@
     <t>I used Hotwire (for the first and last time) and wasn't too happy to get assigned a Motel 6.  As another reviewer said, this property used to be a La Quinta Inn til about 2 years ago.  The good thing about that was an inside entrance, unlike most Motel 6 properties. Better than most Motel 6 properties I think.  It turned out that this property does not have a contract with Hotwire so when I arrived I had no reservation.  However the man at the front desk helped me contact Hotwire to get a refund and  I decided to stay there anyway since it was late and they had a room and it didn't look too bad.  I was in Dallas for a conference so I wasn't at the hotel much, but it served the purpose.  It wasn't as clean as it could have been, and had a slightly shabby feeling about it - cigarette burn holes in the bedspread, extra blanket that looked quite worn, tears in the shower curtain, etc.  My room was quiet though and I was able to sleep well.  I had no problem with my car in the parking lot.  It didn't seem like an unsafe area.  This motel doesn't serve breakfast, but there is an IHOP 2 blocks away and a Waffle House and Starbucks approx. 2 1/2 blocks away as well as several other restaurants.  It was easy to get on/off the 35E...I used Hotwire (for the first and last time) and wasn't too happy to get assigned a Motel 6.  As another reviewer said, this property used to be a La Quinta Inn til about 2 years ago.  The good thing about that was an inside entrance, unlike most Motel 6 properties. Better than most Motel 6 properties I think.  It turned out that this property does not have a contract with Hotwire so when I arrived I had no reservation.  However the man at the front desk helped me contact Hotwire to get a refund and  I decided to stay there anyway since it was late and they had a room and it didn't look too bad.  I was in Dallas for a conference so I wasn't at the hotel much, but it served the purpose.  It wasn't as clean as it could have been, and had a slightly shabby feeling about it - cigarette burn holes in the bedspread, extra blanket that looked quite worn, tears in the shower curtain, etc.  My room was quiet though and I was able to sleep well.  I had no problem with my car in the parking lot.  It didn't seem like an unsafe area.  This motel doesn't serve breakfast, but there is an IHOP 2 blocks away and a Waffle House and Starbucks approx. 2 1/2 blocks away as well as several other restaurants.  It was easy to get on/off the 35E freeway and get where I needed to go.  It was about 15-20 minutes from downtown Dallas.More</t>
   </si>
   <si>
-    <t>Austin S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r155296566-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>155296566</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Once but never again</t>
+  </si>
+  <si>
+    <t>The hotel used to be a La Quinta inn and apparently motel 6 took over the property 2 years ago. The hotel is in an unsafe area according to the front desk - that told us that cars are always being stolen so we should try to park in a lighted area so he can see it through security cameras.
+The hotel is stuck in an early 80s decor and is very worn - towels, linens, and old school box TV set. The king room is large but the wall was peeling, ac sounded horrible and only a bar of soap was available in the bathroom where the shower head was eroding. There is a writing desk with a broken office chair and a small outdated microwave with a small refrigerator. The dressers and night stands have broken handles. The closet is small with worn wood handles.  There is shaky Internet and free parking but no breakfast just some strange looking coffee maker that I would never drink from. 
+I never stay at 1 star properties because I don't find them appealing or safe. The people who we saw in the lobby were very low class with torn clothing and spoke in ghetto English and foul language and gestures.
+I got a reservation booked through an online website and complained to the company that this is not the looks of a 3 star hotel. The next day I called my...The hotel used to be a La Quinta inn and apparently motel 6 took over the property 2 years ago. The hotel is in an unsafe area according to the front desk - that told us that cars are always being stolen so we should try to park in a lighted area so he can see it through security cameras.The hotel is stuck in an early 80s decor and is very worn - towels, linens, and old school box TV set. The king room is large but the wall was peeling, ac sounded horrible and only a bar of soap was available in the bathroom where the shower head was eroding. There is a writing desk with a broken office chair and a small outdated microwave with a small refrigerator. The dressers and night stands have broken handles. The closet is small with worn wood handles.  There is shaky Internet and free parking but no breakfast just some strange looking coffee maker that I would never drink from. I never stay at 1 star properties because I don't find them appealing or safe. The people who we saw in the lobby were very low class with torn clothing and spoke in ghetto English and foul language and gestures.I got a reservation booked through an online website and complained to the company that this is not the looks of a 3 star hotel. The next day I called my booking company that quickly apologized and gave me a full refund.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel used to be a La Quinta inn and apparently motel 6 took over the property 2 years ago. The hotel is in an unsafe area according to the front desk - that told us that cars are always being stolen so we should try to park in a lighted area so he can see it through security cameras.
+The hotel is stuck in an early 80s decor and is very worn - towels, linens, and old school box TV set. The king room is large but the wall was peeling, ac sounded horrible and only a bar of soap was available in the bathroom where the shower head was eroding. There is a writing desk with a broken office chair and a small outdated microwave with a small refrigerator. The dressers and night stands have broken handles. The closet is small with worn wood handles.  There is shaky Internet and free parking but no breakfast just some strange looking coffee maker that I would never drink from. 
+I never stay at 1 star properties because I don't find them appealing or safe. The people who we saw in the lobby were very low class with torn clothing and spoke in ghetto English and foul language and gestures.
+I got a reservation booked through an online website and complained to the company that this is not the looks of a 3 star hotel. The next day I called my...The hotel used to be a La Quinta inn and apparently motel 6 took over the property 2 years ago. The hotel is in an unsafe area according to the front desk - that told us that cars are always being stolen so we should try to park in a lighted area so he can see it through security cameras.The hotel is stuck in an early 80s decor and is very worn - towels, linens, and old school box TV set. The king room is large but the wall was peeling, ac sounded horrible and only a bar of soap was available in the bathroom where the shower head was eroding. There is a writing desk with a broken office chair and a small outdated microwave with a small refrigerator. The dressers and night stands have broken handles. The closet is small with worn wood handles.  There is shaky Internet and free parking but no breakfast just some strange looking coffee maker that I would never drink from. I never stay at 1 star properties because I don't find them appealing or safe. The people who we saw in the lobby were very low class with torn clothing and spoke in ghetto English and foul language and gestures.I got a reservation booked through an online website and complained to the company that this is not the looks of a 3 star hotel. The next day I called my booking company that quickly apologized and gave me a full refund.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r143401262-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>143401262</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>NO BREAKFAST. Not very clean. Floor and baseboard dirty in front lobby. Needs update. Carpet torn right when you step off the elevator. Attempted to use the hot tub but the timer didn't work. Called the front desk and said "the hot tub doesn't work?" Front desk says "yeah it works just the jets don't work". Outdoor furniture old and rusty. No tissue or waste basket in the bathroom. No iron, ironing board or hairdyer. Was supposed to be non smoking but there were cigarette burns on the furniture and bath vanity. Crayon scribbles all over one wall. Will not stay there again.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r143173559-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -612,9 +834,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>Cody S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r133805383-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -633,9 +852,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>DaniElla B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r133546509-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -654,7 +870,82 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>Karolyn70</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r125888647-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>125888647</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>motel 6</t>
+  </si>
+  <si>
+    <t>I've stayed at a motel 6 before and really enjoyed it, so this trip I booked another motel 6. When I arrived I had to wait 2 hours to get room because the hotel was full. now once I got a room the place was nice until the next morning I saw a roach in the bathroom so I killed it. I told the manager and he did move me to another room and promised to refund me some of my room fee back. The new room was nice, but I saw another roach in light in the bathroom the next day. I did received my discount for the room, but I would not stay at that motel 6 again. 2380 W Northwest Hwy, Dallas, TX 75220. Don't stay at this motel 6 unless you like roaches.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at a motel 6 before and really enjoyed it, so this trip I booked another motel 6. When I arrived I had to wait 2 hours to get room because the hotel was full. now once I got a room the place was nice until the next morning I saw a roach in the bathroom so I killed it. I told the manager and he did move me to another room and promised to refund me some of my room fee back. The new room was nice, but I saw another roach in light in the bathroom the next day. I did received my discount for the room, but I would not stay at that motel 6 again. 2380 W Northwest Hwy, Dallas, TX 75220. Don't stay at this motel 6 unless you like roaches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r116862412-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>116862412</t>
+  </si>
+  <si>
+    <t>08/17/2011</t>
+  </si>
+  <si>
+    <t>What a disappointment!  It could be so much better.</t>
+  </si>
+  <si>
+    <t>Pros: 
+Large room
+Super comfortable bed
+Microwave
+Mini-fridge
+Cons:
+Overflowing toilet
+Dingy, stained towel
+A/C stuck on so the room was too cold 
+No coffee pot in the room
+No hair dryer
+No alarm clock
+No iron/ironing board
+No complimentary toiletries except soap (others available in a vending machine)
+Hot tub spa was green and disgusting but no "out of order" sign posted
+Strong wifi signal, but internet was slow and cut out several times
+There are really too many cons to list.  I would never stay at this location again.  I overheard a hotel guest complaining at the front desk about a laptop being stolen from their room.  The front desk manager was watching security tapes to try to determine what happened.  I made a mental note to take my laptop with me whenever I left the room!
+The worst situation I saw was housekeeping had children going into the rooms with them!  I saw a boy about 8 years old and a girl around 4 years old.  There is no way those children could be properly supervised if the housekeeper was doing her job.  The kids could have been into the guest's luggage, personal items, etc.  God forbid that one of those children would get into a guest's medication!  It is completely inexcusable for children to be in the rooms with the housekeeper!  This situation will be reported to Motel 6 Corporate.
+This property used to be a...Pros: Large roomSuper comfortable bedMicrowaveMini-fridgeCons:Overflowing toiletDingy, stained towelA/C stuck on so the room was too cold No coffee pot in the roomNo hair dryerNo alarm clockNo iron/ironing boardNo complimentary toiletries except soap (others available in a vending machine)Hot tub spa was green and disgusting but no "out of order" sign postedStrong wifi signal, but internet was slow and cut out several timesThere are really too many cons to list.  I would never stay at this location again.  I overheard a hotel guest complaining at the front desk about a laptop being stolen from their room.  The front desk manager was watching security tapes to try to determine what happened.  I made a mental note to take my laptop with me whenever I left the room!The worst situation I saw was housekeeping had children going into the rooms with them!  I saw a boy about 8 years old and a girl around 4 years old.  There is no way those children could be properly supervised if the housekeeper was doing her job.  The kids could have been into the guest's luggage, personal items, etc.  God forbid that one of those children would get into a guest's medication!  It is completely inexcusable for children to be in the rooms with the housekeeper!  This situation will be reported to Motel 6 Corporate.This property used to be a La Quinta.  It has potential to be a really nice budget hotel.  Sadly, it doesn't appear that it's on the right track.  Don't be fooled by the "new location" label on the Motel 6 website regarding this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Pros: 
+Large room
+Super comfortable bed
+Microwave
+Mini-fridge
+Cons:
+Overflowing toilet
+Dingy, stained towel
+A/C stuck on so the room was too cold 
+No coffee pot in the room
+No hair dryer
+No alarm clock
+No iron/ironing board
+No complimentary toiletries except soap (others available in a vending machine)
+Hot tub spa was green and disgusting but no "out of order" sign posted
+Strong wifi signal, but internet was slow and cut out several times
+There are really too many cons to list.  I would never stay at this location again.  I overheard a hotel guest complaining at the front desk about a laptop being stolen from their room.  The front desk manager was watching security tapes to try to determine what happened.  I made a mental note to take my laptop with me whenever I left the room!
+The worst situation I saw was housekeeping had children going into the rooms with them!  I saw a boy about 8 years old and a girl around 4 years old.  There is no way those children could be properly supervised if the housekeeper was doing her job.  The kids could have been into the guest's luggage, personal items, etc.  God forbid that one of those children would get into a guest's medication!  It is completely inexcusable for children to be in the rooms with the housekeeper!  This situation will be reported to Motel 6 Corporate.
+This property used to be a...Pros: Large roomSuper comfortable bedMicrowaveMini-fridgeCons:Overflowing toiletDingy, stained towelA/C stuck on so the room was too cold No coffee pot in the roomNo hair dryerNo alarm clockNo iron/ironing boardNo complimentary toiletries except soap (others available in a vending machine)Hot tub spa was green and disgusting but no "out of order" sign postedStrong wifi signal, but internet was slow and cut out several timesThere are really too many cons to list.  I would never stay at this location again.  I overheard a hotel guest complaining at the front desk about a laptop being stolen from their room.  The front desk manager was watching security tapes to try to determine what happened.  I made a mental note to take my laptop with me whenever I left the room!The worst situation I saw was housekeeping had children going into the rooms with them!  I saw a boy about 8 years old and a girl around 4 years old.  There is no way those children could be properly supervised if the housekeeper was doing her job.  The kids could have been into the guest's luggage, personal items, etc.  God forbid that one of those children would get into a guest's medication!  It is completely inexcusable for children to be in the rooms with the housekeeper!  This situation will be reported to Motel 6 Corporate.This property used to be a La Quinta.  It has potential to be a really nice budget hotel.  Sadly, it doesn't appear that it's on the right track.  Don't be fooled by the "new location" label on the Motel 6 website regarding this property.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r115048473-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -678,9 +969,6 @@
     <t>Read reviews about this Motel 6 as being brand new (not one that was another hotel before) and was expecting a new one. The clerk at the front desk was helpful when checking in but when we were struggling to open the front doors with our hands full he was standing by the front doors and just watched without offering to help.  The beds were new and very comfortable. The sheets and blankets were very clean and white but the bed cover when pulled back there was a huge (size of an apple) burned hole on the inside of it.  The room was extremely hot when we arrived at 8pm and it took till midnight to cool it down.  The floors felt uneven, the bathroom was so-so.  I just wouldn't recommend this hotel/motel to anyone of my friends or family.More</t>
   </si>
   <si>
-    <t>hokiemom05</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r76232193-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -699,9 +987,6 @@
     <t>August 2010</t>
   </si>
   <si>
-    <t>OldOwlEyes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r52314616-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -723,7 +1008,54 @@
     <t>Overall this was an average stay.  The rooms were relatively clean, only one business card for the gentlemen's club next door was found in the pull-out couch bed.  Breakfast had a decent selection, though stay away from the powdered eggs and rock-hard sausages.  Biggest issue was the misleading features on the La Quinta website.  It listed "Airport Shuttle" for Dallas-Love Field.  The "shuttle" consisted of the desk clerk calling a taxi cab for drop-off and coordinating something for pickup on return.  Except if you didn't have a reservation on the return after sleeping the night before the trip and leaving your car at the hotel lot they would not pick you up from the airport.  There is NO shuttle to the hotel, only an "arrangement" that may or may not be available.  Pool also was dark for our entire stay -- don't know if it was working or not.The desk clerk was helpful in customer service for other required needs.More</t>
   </si>
   <si>
-    <t>acemom98</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r42460222-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>42460222</t>
+  </si>
+  <si>
+    <t>09/17/2009</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The positives on this hotel are its cheap price and its location (depending on your destination in Dallas). The room was clean and the maid service was good. The room included a sitting area with coffee pot and microwave. The sheets were not high quality and the bed was so-so, but it was quiet and hey! It was cheap! Breakfast is powdered scrambled eggs, sausage, waffles, white bread, cereals, and juice. Not great but it is provided and adequate. An IHOP is right up the street! The internet service was very spotty, and during one 24 hour period I had to ask them to reboot the router 4 times. I think others have complained about that. Front desk personnel were helpful and helped me print a boarding pass in the back office. Bottom line: It's a cheap price and an economy hotel. It delivers on what it promises, but don't expect the Ritz Carlton.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>The positives on this hotel are its cheap price and its location (depending on your destination in Dallas). The room was clean and the maid service was good. The room included a sitting area with coffee pot and microwave. The sheets were not high quality and the bed was so-so, but it was quiet and hey! It was cheap! Breakfast is powdered scrambled eggs, sausage, waffles, white bread, cereals, and juice. Not great but it is provided and adequate. An IHOP is right up the street! The internet service was very spotty, and during one 24 hour period I had to ask them to reboot the router 4 times. I think others have complained about that. Front desk personnel were helpful and helped me print a boarding pass in the back office. Bottom line: It's a cheap price and an economy hotel. It delivers on what it promises, but don't expect the Ritz Carlton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r32496538-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>32496538</t>
+  </si>
+  <si>
+    <t>06/16/2009</t>
+  </si>
+  <si>
+    <t>Close to Love Field - that's about it.</t>
+  </si>
+  <si>
+    <t>We were flying out of Love Field early one morning for an out of state family wedding and decided to stay here to save a 4:30 AM drive into DFW.  We stayed here on points earned. We booked a queen suite; easy check in; nice gentlemen at the front desk. 
+This hotel is in need of a good updating.  The carpet in the halls are very worn; holes in some places. The room is very tired and decor dated.  We booked for three adults; our 21 year old son  to use the sofa bed.  The first room was equipped with a sink, microwave, and fridge. A desk/chair, sleeper sofa, coffee table, and television are in the front room.  Double doors open into the bedroom.  A television is also in this room.  The mattress on the bed needs to be replaced; sheets were dingy.  Carpet was old and worn.
+Checked the sofa bed upon arrival; dirty sheets from food and 'stuff' falling thru the couch onto the sofa bed.  Sheets were stained with what looked like blood that didn't come out in the wash.  Slept like a typical sofa bed.
+Found hairs in the tub; towels were very thin and big enough to cover an elementary aged child.  The bathroom is relatively small; the sink is located just outside the bath area.  Tight space to move around in.
+The breakfast was presented nicely but was standard continental breakfast fare. The exception...We were flying out of Love Field early one morning for an out of state family wedding and decided to stay here to save a 4:30 AM drive into DFW.  We stayed here on points earned. We booked a queen suite; easy check in; nice gentlemen at the front desk. This hotel is in need of a good updating.  The carpet in the halls are very worn; holes in some places. The room is very tired and decor dated.  We booked for three adults; our 21 year old son  to use the sofa bed.  The first room was equipped with a sink, microwave, and fridge. A desk/chair, sleeper sofa, coffee table, and television are in the front room.  Double doors open into the bedroom.  A television is also in this room.  The mattress on the bed needs to be replaced; sheets were dingy.  Carpet was old and worn.Checked the sofa bed upon arrival; dirty sheets from food and 'stuff' falling thru the couch onto the sofa bed.  Sheets were stained with what looked like blood that didn't come out in the wash.  Slept like a typical sofa bed.Found hairs in the tub; towels were very thin and big enough to cover an elementary aged child.  The bathroom is relatively small; the sink is located just outside the bath area.  Tight space to move around in.The breakfast was presented nicely but was standard continental breakfast fare. The exception was the variety of juices and flavored coffee creamers offered.  The breakfast area is large.  The business office has one computer.  The pool is indoors and was not open when we were there. My son checked out the fitness center and said he didn't want to use it - too much out of date. The only people from the hotel we encountered were two different gentlemen at the front desk and the young lady running the breakfast area.  They were polite and professional.  While this is a good location for Love Field we won't stay here again.  It may be a good deal but it needs better cleaning and is in serious need of a remodel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>We were flying out of Love Field early one morning for an out of state family wedding and decided to stay here to save a 4:30 AM drive into DFW.  We stayed here on points earned. We booked a queen suite; easy check in; nice gentlemen at the front desk. 
+This hotel is in need of a good updating.  The carpet in the halls are very worn; holes in some places. The room is very tired and decor dated.  We booked for three adults; our 21 year old son  to use the sofa bed.  The first room was equipped with a sink, microwave, and fridge. A desk/chair, sleeper sofa, coffee table, and television are in the front room.  Double doors open into the bedroom.  A television is also in this room.  The mattress on the bed needs to be replaced; sheets were dingy.  Carpet was old and worn.
+Checked the sofa bed upon arrival; dirty sheets from food and 'stuff' falling thru the couch onto the sofa bed.  Sheets were stained with what looked like blood that didn't come out in the wash.  Slept like a typical sofa bed.
+Found hairs in the tub; towels were very thin and big enough to cover an elementary aged child.  The bathroom is relatively small; the sink is located just outside the bath area.  Tight space to move around in.
+The breakfast was presented nicely but was standard continental breakfast fare. The exception...We were flying out of Love Field early one morning for an out of state family wedding and decided to stay here to save a 4:30 AM drive into DFW.  We stayed here on points earned. We booked a queen suite; easy check in; nice gentlemen at the front desk. This hotel is in need of a good updating.  The carpet in the halls are very worn; holes in some places. The room is very tired and decor dated.  We booked for three adults; our 21 year old son  to use the sofa bed.  The first room was equipped with a sink, microwave, and fridge. A desk/chair, sleeper sofa, coffee table, and television are in the front room.  Double doors open into the bedroom.  A television is also in this room.  The mattress on the bed needs to be replaced; sheets were dingy.  Carpet was old and worn.Checked the sofa bed upon arrival; dirty sheets from food and 'stuff' falling thru the couch onto the sofa bed.  Sheets were stained with what looked like blood that didn't come out in the wash.  Slept like a typical sofa bed.Found hairs in the tub; towels were very thin and big enough to cover an elementary aged child.  The bathroom is relatively small; the sink is located just outside the bath area.  Tight space to move around in.The breakfast was presented nicely but was standard continental breakfast fare. The exception was the variety of juices and flavored coffee creamers offered.  The breakfast area is large.  The business office has one computer.  The pool is indoors and was not open when we were there. My son checked out the fitness center and said he didn't want to use it - too much out of date. The only people from the hotel we encountered were two different gentlemen at the front desk and the young lady running the breakfast area.  They were polite and professional.  While this is a good location for Love Field we won't stay here again.  It may be a good deal but it needs better cleaning and is in serious need of a remodel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r17419682-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -747,9 +1079,6 @@
     <t>In a grouping of average hotels, we found this Inn to have the only room to affordably and most comfortably accommodate our family of 5 (3 girls + parents) in one room for 3 nights (2 Q + sofabed). Water pressure was excellent; we had to request more towels but that was no problem. Beds were feather toppers on old mattress, so that's a personal opinion - mixed reviews among our family, but we did all sleep. The breakfast was better than expected, with a good variety of choices (same choices each day, but many options). The pool and hot tub area were nice and never really busy. All the staff we encountered was friendly and helpful. The area across the highway loop is not such a great area, but food, fuel &amp; shopping is pretty easily accessible past that small spot or even back the other way from the loop. In general, this hotel could use a little TLC, but it seems like wear-and-tear cosmetic stuff. We'd probably stay there again.More</t>
   </si>
   <si>
-    <t>kcboy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r15111105-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
   </si>
   <si>
@@ -766,9 +1095,6 @@
   </si>
   <si>
     <t>The rate here was almost half what I was seeing at most other properties in Dallas, so my expectations weren't too high. Even after arriving, I wasn't completely sure about it, just because the area is kind of blah. Not bad, really. Just blah.But check-in was easy as could be and they put me in a queen bed suite. The good thing about that was there was a sitting room of sorts that separated the bedroom from the hallway. If noise was an issue, I didn't notice it. Room also had a fridge, two televisions (one in the bedroom, one in the sitting room).The AC was kind of loud, but I personally like to have a slight bit of room noise. Everything in the room worked fine.Only two minor complaints- the fitness center is in big need of a remodel. They just need to replace everything in there. And the breakfast buffet could use some work.But for $80, there's not much else to quibble about. It was better than I expected.More</t>
-  </si>
-  <si>
-    <t>Gringo-de-la-mancha</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r12765523-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -800,7 +1126,43 @@
 If you don't have to fly to DFW, and want a place close to the...I admit that I didn't spend a whole lot of time at the hotel, but the time I did spend there was above expectations.I flew in to Love Field since I had to do some work up in McKinney.  i wanted a place that was close to the airport for my only night in town, so I didn't have to mess with traffic in the morning on the way to the airport.  This hotel is extremely clean, friendly, and the room I stayed in was great.  2 separate rooms, one with a king bed and TV, the other has a sleeper sofa and TV.  Great setup, I'm not sure what room type it was, so I don't know if they're all like that.  It was only me, so it was a waste of space, but I appreciated not feeling crammed.  Also, bathroom was nice and spacious.  I can't rate the room service since I only stayed one night, but when I got there it was very clean.I saw a lot of other hotel complaints about airplane noise and planes flying directly overhead.  I didn't notice this at all at this hotel, even though it was close to the airport....I had a very quiet night's rest.Anyway, typical La Quinta continental breakfast: Waffle maker, fruits, breads, cereal, juices.  That was just fine for me.If you don't have to fly to DFW, and want a place close to the airport to avoid the hassles, stay here...I don't think you'll regret it at all.It didn't seem like there was much to do around there though, so at least get yourself some transportation.More</t>
   </si>
   <si>
-    <t>becly</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r10692489-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>10692489</t>
+  </si>
+  <si>
+    <t>11/08/2007</t>
+  </si>
+  <si>
+    <t>Great Place To Stay With Great Prices</t>
+  </si>
+  <si>
+    <t>Me &amp; my husband stayed here for one night as kind of a getaway from the kids because it was our 5 year anniversary.... we didn't have much money otherwise we would have stayed WAY longer! We picked this hotel because it has an indoor swimming pool and hot tub - that was our main reason for picking it and the fact that we usually stay in La Quintas. It was everything we expected and more. For $100 a night we got the indoor pool and hot tub which was really nice - we got a VERY spacious room with TWO tvs which would be great for people traveling with children. It was very clean, had a fridge, microwave, a fold out couch bed, a desk, a kitchen sink, and it had two sets of french doors seperating the two rooms... the room with the king size bed, and the room with the couch. It had everything we wanted, the people were friendly, we had no problem with getting the room we had asked for... king/smoking... and the free breakfast was pretty good. They had eggs and sausage... the sausage was really good and so was teh orange juice. It's a kind of small hotel so we there weren't many people, and therefore we had the pool and hot tub to ourselves! And the pool and hot tub hours are 6AM to 12 midnight which was REALLY nice!! They also...Me &amp; my husband stayed here for one night as kind of a getaway from the kids because it was our 5 year anniversary.... we didn't have much money otherwise we would have stayed WAY longer! We picked this hotel because it has an indoor swimming pool and hot tub - that was our main reason for picking it and the fact that we usually stay in La Quintas. It was everything we expected and more. For $100 a night we got the indoor pool and hot tub which was really nice - we got a VERY spacious room with TWO tvs which would be great for people traveling with children. It was very clean, had a fridge, microwave, a fold out couch bed, a desk, a kitchen sink, and it had two sets of french doors seperating the two rooms... the room with the king size bed, and the room with the couch. It had everything we wanted, the people were friendly, we had no problem with getting the room we had asked for... king/smoking... and the free breakfast was pretty good. They had eggs and sausage... the sausage was really good and so was teh orange juice. It's a kind of small hotel so we there weren't many people, and therefore we had the pool and hot tub to ourselves! And the pool and hot tub hours are 6AM to 12 midnight which was REALLY nice!! They also had an exercise room. We were very suprised by the size of our room. And of course like most La Quintas they had the regular movies you could rent and adult movies also on the TV. It was better than expected. Oh, and the king bed had a down mattress pad on it... which helped with the comfort. Not sure what kind of feathers were in it, but it was nice. The air conditioner (which we didn't use because it was November) but the air conditioner had a piece of curved plastic on it that I'm guessing is suppose to help manuever the air flow towards you instead of up into the air which I thought was pretty cool. And the shower/bath tub had a curved shower curtain which I love! Anyway, it was a wonderful place to stay for the price - we were VERY pleased, and we had a very nice, pleasent stay. Great place, would highly recommend!! Would have added some photos, but I didn't take any! Sorry!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>Me &amp; my husband stayed here for one night as kind of a getaway from the kids because it was our 5 year anniversary.... we didn't have much money otherwise we would have stayed WAY longer! We picked this hotel because it has an indoor swimming pool and hot tub - that was our main reason for picking it and the fact that we usually stay in La Quintas. It was everything we expected and more. For $100 a night we got the indoor pool and hot tub which was really nice - we got a VERY spacious room with TWO tvs which would be great for people traveling with children. It was very clean, had a fridge, microwave, a fold out couch bed, a desk, a kitchen sink, and it had two sets of french doors seperating the two rooms... the room with the king size bed, and the room with the couch. It had everything we wanted, the people were friendly, we had no problem with getting the room we had asked for... king/smoking... and the free breakfast was pretty good. They had eggs and sausage... the sausage was really good and so was teh orange juice. It's a kind of small hotel so we there weren't many people, and therefore we had the pool and hot tub to ourselves! And the pool and hot tub hours are 6AM to 12 midnight which was REALLY nice!! They also...Me &amp; my husband stayed here for one night as kind of a getaway from the kids because it was our 5 year anniversary.... we didn't have much money otherwise we would have stayed WAY longer! We picked this hotel because it has an indoor swimming pool and hot tub - that was our main reason for picking it and the fact that we usually stay in La Quintas. It was everything we expected and more. For $100 a night we got the indoor pool and hot tub which was really nice - we got a VERY spacious room with TWO tvs which would be great for people traveling with children. It was very clean, had a fridge, microwave, a fold out couch bed, a desk, a kitchen sink, and it had two sets of french doors seperating the two rooms... the room with the king size bed, and the room with the couch. It had everything we wanted, the people were friendly, we had no problem with getting the room we had asked for... king/smoking... and the free breakfast was pretty good. They had eggs and sausage... the sausage was really good and so was teh orange juice. It's a kind of small hotel so we there weren't many people, and therefore we had the pool and hot tub to ourselves! And the pool and hot tub hours are 6AM to 12 midnight which was REALLY nice!! They also had an exercise room. We were very suprised by the size of our room. And of course like most La Quintas they had the regular movies you could rent and adult movies also on the TV. It was better than expected. Oh, and the king bed had a down mattress pad on it... which helped with the comfort. Not sure what kind of feathers were in it, but it was nice. The air conditioner (which we didn't use because it was November) but the air conditioner had a piece of curved plastic on it that I'm guessing is suppose to help manuever the air flow towards you instead of up into the air which I thought was pretty cool. And the shower/bath tub had a curved shower curtain which I love! Anyway, it was a wonderful place to stay for the price - we were VERY pleased, and we had a very nice, pleasent stay. Great place, would highly recommend!! Would have added some photos, but I didn't take any! Sorry!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r5811726-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>5811726</t>
+  </si>
+  <si>
+    <t>09/17/2006</t>
+  </si>
+  <si>
+    <t>Nice Hotel a little confusing location</t>
+  </si>
+  <si>
+    <t>I was here just about 2 weeks ago for business.  We stay at LaQuinta's all the time.  I was in room 101.  It had a couch, refrigerator, desk, and a separate room where the bed was.  It had the usual hair dryer, iron &amp; ironing board.  I felt like the maid didn't do that great of a job so I only let her clean once.  I always bring my own lysol or clorox wet wipes and wipe every thing down so I didn't see the need for her to come back.  The pillows and the bed were very nice.  It also had a ceiling fan in the living room.  The staff was friendly enough.  I say confusing location only because you can only take a right out of the hotel unless you go to the hotel next door and drive along a fence, etc... to make a right.  The hotel is close to the highway.  There was plenty to eat around there.  I was alone and felt safe by myself.  I would stay here again in a minute.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was here just about 2 weeks ago for business.  We stay at LaQuinta's all the time.  I was in room 101.  It had a couch, refrigerator, desk, and a separate room where the bed was.  It had the usual hair dryer, iron &amp; ironing board.  I felt like the maid didn't do that great of a job so I only let her clean once.  I always bring my own lysol or clorox wet wipes and wipe every thing down so I didn't see the need for her to come back.  The pillows and the bed were very nice.  It also had a ceiling fan in the living room.  The staff was friendly enough.  I say confusing location only because you can only take a right out of the hotel unless you go to the hotel next door and drive along a fence, etc... to make a right.  The hotel is close to the highway.  There was plenty to eat around there.  I was alone and felt safe by myself.  I would stay here again in a minute.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109453-r3493584-Motel_6_Dallas_Northwest-Dallas_Texas.html</t>
@@ -1320,47 +1682,43 @@
       <c r="A2" t="n">
         <v>33671</v>
       </c>
-      <c r="B2" t="n">
-        <v>1241</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1374,123 +1732,107 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33671</v>
       </c>
-      <c r="B3" t="n">
-        <v>38493</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33671</v>
       </c>
-      <c r="B4" t="n">
-        <v>169233</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1501,261 +1843,251 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" t="s">
-        <v>64</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33671</v>
       </c>
-      <c r="B5" t="n">
-        <v>8370</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33671</v>
       </c>
-      <c r="B6" t="n">
-        <v>169234</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
       <c r="O6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33671</v>
       </c>
-      <c r="B7" t="n">
-        <v>169235</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33671</v>
       </c>
-      <c r="B8" t="n">
-        <v>169236</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>97</v>
       </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>101</v>
-      </c>
       <c r="O8" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" t="n">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
         <v>4</v>
       </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>3</v>
@@ -1766,177 +2098,173 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33671</v>
       </c>
-      <c r="B9" t="n">
-        <v>29312</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
         <v>103</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" t="s">
-        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33671</v>
       </c>
-      <c r="B10" t="n">
-        <v>169237</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>110</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>115</v>
-      </c>
       <c r="O10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33671</v>
       </c>
-      <c r="B11" t="n">
-        <v>86879</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" t="s">
-        <v>62</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -1949,121 +2277,107 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33671</v>
       </c>
-      <c r="B12" t="n">
-        <v>23415</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33671</v>
       </c>
-      <c r="B13" t="n">
-        <v>169238</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2077,66 +2391,62 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33671</v>
       </c>
-      <c r="B14" t="n">
-        <v>169239</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
       <c r="P14" t="n">
         <v>4</v>
       </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2144,125 +2454,107 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33671</v>
       </c>
-      <c r="B15" t="n">
-        <v>169240</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>150</v>
-      </c>
-      <c r="X15" t="s">
-        <v>151</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33671</v>
       </c>
-      <c r="B16" t="n">
-        <v>169241</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2273,302 +2565,244 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>160</v>
-      </c>
-      <c r="X16" t="s">
-        <v>161</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33671</v>
       </c>
-      <c r="B17" t="n">
-        <v>7173</v>
-      </c>
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>171</v>
-      </c>
-      <c r="X17" t="s">
-        <v>172</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33671</v>
       </c>
-      <c r="B18" t="n">
-        <v>10172</v>
-      </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>171</v>
-      </c>
-      <c r="X18" t="s">
-        <v>172</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33671</v>
       </c>
-      <c r="B19" t="n">
-        <v>169242</v>
-      </c>
-      <c r="C19" t="s">
-        <v>182</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>188</v>
-      </c>
-      <c r="X19" t="s">
-        <v>189</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33671</v>
       </c>
-      <c r="B20" t="n">
-        <v>169243</v>
-      </c>
-      <c r="C20" t="s">
-        <v>191</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2576,279 +2810,241 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33671</v>
       </c>
-      <c r="B21" t="n">
-        <v>37702</v>
-      </c>
-      <c r="C21" t="s">
-        <v>198</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>116</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33671</v>
       </c>
-      <c r="B22" t="n">
-        <v>169244</v>
-      </c>
-      <c r="C22" t="s">
-        <v>205</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s">
+        <v>182</v>
+      </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33671</v>
       </c>
-      <c r="B23" t="n">
-        <v>169245</v>
-      </c>
-      <c r="C23" t="s">
-        <v>212</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>190</v>
+      </c>
+      <c r="X23" t="s">
+        <v>191</v>
+      </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33671</v>
       </c>
-      <c r="B24" t="n">
-        <v>169246</v>
-      </c>
-      <c r="C24" t="s">
-        <v>220</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>226</v>
-      </c>
-      <c r="O24" t="s">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2856,275 +3052,261 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33671</v>
       </c>
-      <c r="B25" t="n">
-        <v>169247</v>
-      </c>
-      <c r="C25" t="s">
-        <v>227</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>233</v>
-      </c>
-      <c r="O25" t="s">
-        <v>88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>203</v>
+      </c>
+      <c r="X25" t="s">
+        <v>204</v>
+      </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33671</v>
       </c>
-      <c r="B26" t="n">
-        <v>169248</v>
-      </c>
-      <c r="C26" t="s">
-        <v>235</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="K26" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="L26" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="O26" t="s">
-        <v>88</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>212</v>
+      </c>
+      <c r="X26" t="s">
+        <v>213</v>
+      </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33671</v>
       </c>
-      <c r="B27" t="n">
-        <v>169249</v>
-      </c>
-      <c r="C27" t="s">
-        <v>243</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="J27" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
         <v>4</v>
       </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" t="s">
+        <v>222</v>
+      </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33671</v>
       </c>
-      <c r="B28" t="n">
-        <v>169250</v>
-      </c>
-      <c r="C28" t="s">
-        <v>250</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
         <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3133,75 +3315,1393 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>221</v>
+      </c>
+      <c r="X28" t="s">
+        <v>222</v>
+      </c>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33671</v>
       </c>
-      <c r="B29" t="n">
-        <v>169251</v>
-      </c>
-      <c r="C29" t="s">
-        <v>258</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>221</v>
+      </c>
+      <c r="X29" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>243</v>
+      </c>
+      <c r="O30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>221</v>
+      </c>
+      <c r="X30" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
         <v>4</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s">
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+      <c r="J33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s">
         <v>263</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>269</v>
+      </c>
+      <c r="O34" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" t="s">
+        <v>274</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>275</v>
+      </c>
+      <c r="O35" t="s">
+        <v>145</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>281</v>
+      </c>
+      <c r="O36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>283</v>
+      </c>
+      <c r="J37" t="s">
+        <v>284</v>
+      </c>
+      <c r="K37" t="s">
+        <v>285</v>
+      </c>
+      <c r="L37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>287</v>
+      </c>
+      <c r="O37" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>289</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>290</v>
+      </c>
+      <c r="J38" t="s">
+        <v>291</v>
+      </c>
+      <c r="K38" t="s">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s">
+        <v>293</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>294</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" t="s">
+        <v>298</v>
+      </c>
+      <c r="K39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s">
+        <v>300</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>301</v>
+      </c>
+      <c r="O39" t="s">
+        <v>91</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" t="s">
+        <v>305</v>
+      </c>
+      <c r="K40" t="s">
+        <v>306</v>
+      </c>
+      <c r="L40" t="s">
+        <v>307</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>308</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>310</v>
+      </c>
+      <c r="J41" t="s">
+        <v>311</v>
+      </c>
+      <c r="K41" t="s">
+        <v>312</v>
+      </c>
+      <c r="L41" t="s">
+        <v>313</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>314</v>
+      </c>
+      <c r="O41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>317</v>
+      </c>
+      <c r="J42" t="s">
+        <v>318</v>
+      </c>
+      <c r="K42" t="s">
+        <v>319</v>
+      </c>
+      <c r="L42" t="s">
+        <v>320</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>321</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>323</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>324</v>
+      </c>
+      <c r="J43" t="s">
+        <v>325</v>
+      </c>
+      <c r="K43" t="s">
+        <v>326</v>
+      </c>
+      <c r="L43" t="s">
+        <v>327</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>328</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>331</v>
+      </c>
+      <c r="J44" t="s">
+        <v>332</v>
+      </c>
+      <c r="K44" t="s">
+        <v>333</v>
+      </c>
+      <c r="L44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>335</v>
+      </c>
+      <c r="O44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>337</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" t="s">
+        <v>340</v>
+      </c>
+      <c r="L45" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>343</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>344</v>
+      </c>
+      <c r="J46" t="s">
+        <v>345</v>
+      </c>
+      <c r="K46" t="s">
+        <v>346</v>
+      </c>
+      <c r="L46" t="s">
+        <v>347</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>348</v>
+      </c>
+      <c r="O46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s">
+        <v>353</v>
+      </c>
+      <c r="L47" t="s">
+        <v>354</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>355</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33671</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
